--- a/TCC/APS/DescricaoClasse/DescricaoClasse_Morador.xlsx
+++ b/TCC/APS/DescricaoClasse/DescricaoClasse_Morador.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaoh\OneDrive\Documentos\GitHub\Etec\TCC\APS\DescricaoClasse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\userlocal\Documents\GitHub\Etec\TCC\APS\DescricaoClasse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{261A14D4-19D2-407C-A27C-4FFCAE78E130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D90EFEF8-5735-4C55-8F2B-261AF0CFA42E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -253,7 +252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,11 +657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB182944-023C-4CFF-9858-6C02BA55315C}">
-  <dimension ref="C1:I43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,39 +674,29 @@
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="9" t="s">
+    <row r="2" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -717,7 +706,7 @@
     </row>
     <row r="5" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -725,86 +714,78 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="8" t="s">
+    <row r="6" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1234</v>
       </c>
     </row>
     <row r="9" spans="4:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="4">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1234</v>
+      </c>
     </row>
     <row r="10" spans="4:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="4">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>20</v>
@@ -813,124 +794,126 @@
     </row>
     <row r="11" spans="4:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="4">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="4:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="6">
-        <v>36872</v>
+        <v>29</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="4:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="I14" s="6">
+        <v>36872</v>
       </c>
     </row>
     <row r="15" spans="4:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="4:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="4">
-        <v>5</v>
-      </c>
-      <c r="H16" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="4:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="5" t="s">
-        <v>42</v>
+      <c r="D17" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>19</v>
@@ -941,47 +924,55 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="4:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="4" t="s">
-        <v>44</v>
+    <row r="18" spans="4:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="4:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="4">
+        <v>50</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="4:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4">
         <v>15</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="4:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="4:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
@@ -1127,7 +1118,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -1152,12 +1143,12 @@
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
@@ -1167,14 +1158,22 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
